--- a/data/pca/factorExposure/factorExposure_2011-12-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-12-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01069218152865336</v>
+        <v>0.01129040644763481</v>
       </c>
       <c r="C2">
-        <v>-0.02995373344899297</v>
+        <v>-0.02446102321067814</v>
       </c>
       <c r="D2">
-        <v>-0.02194354566249839</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02423624415533049</v>
+      </c>
+      <c r="E2">
+        <v>0.007045347105862828</v>
+      </c>
+      <c r="F2">
+        <v>-0.02711536458937767</v>
+      </c>
+      <c r="G2">
+        <v>-0.004381927677671618</v>
+      </c>
+      <c r="H2">
+        <v>0.02639991773083578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07484919649175564</v>
+        <v>0.08770348306635473</v>
       </c>
       <c r="C4">
-        <v>-0.05054711370868856</v>
+        <v>-0.03393125451325919</v>
       </c>
       <c r="D4">
-        <v>-0.08101652757595344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.07045727377610884</v>
+      </c>
+      <c r="E4">
+        <v>0.007295373816543475</v>
+      </c>
+      <c r="F4">
+        <v>-0.04082184362265794</v>
+      </c>
+      <c r="G4">
+        <v>-0.01548510800811596</v>
+      </c>
+      <c r="H4">
+        <v>-0.04014537221680301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.110882207790712</v>
+        <v>0.1239639498715752</v>
       </c>
       <c r="C6">
-        <v>-0.0486835331474376</v>
+        <v>-0.03388715613808006</v>
       </c>
       <c r="D6">
-        <v>-0.005864646807498014</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01015660702802773</v>
+      </c>
+      <c r="E6">
+        <v>-0.02835510536293168</v>
+      </c>
+      <c r="F6">
+        <v>-0.05391868484937992</v>
+      </c>
+      <c r="G6">
+        <v>-0.03361913163944153</v>
+      </c>
+      <c r="H6">
+        <v>0.1171480836216671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05564418852826943</v>
+        <v>0.06450077822043628</v>
       </c>
       <c r="C7">
-        <v>-0.02767738229463878</v>
+        <v>-0.01281521342133518</v>
       </c>
       <c r="D7">
-        <v>-0.03280251239582561</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05066500659464128</v>
+      </c>
+      <c r="E7">
+        <v>0.0304606411402759</v>
+      </c>
+      <c r="F7">
+        <v>-0.04213604533395961</v>
+      </c>
+      <c r="G7">
+        <v>0.03125932126813768</v>
+      </c>
+      <c r="H7">
+        <v>-0.009476454934619578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03923333311094085</v>
+        <v>0.04235907337678026</v>
       </c>
       <c r="C8">
-        <v>-0.01273154666694231</v>
+        <v>-0.008858433518363009</v>
       </c>
       <c r="D8">
-        <v>-0.06036480030793373</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0240699638261007</v>
+      </c>
+      <c r="E8">
+        <v>0.01257785768992446</v>
+      </c>
+      <c r="F8">
+        <v>-0.06460294411285132</v>
+      </c>
+      <c r="G8">
+        <v>-0.0733781707619392</v>
+      </c>
+      <c r="H8">
+        <v>0.0126203635183277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.07102668602911522</v>
+        <v>0.08070517266223735</v>
       </c>
       <c r="C9">
-        <v>-0.03884434464699076</v>
+        <v>-0.02315026477941907</v>
       </c>
       <c r="D9">
-        <v>-0.07105389338992069</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06308147621239313</v>
+      </c>
+      <c r="E9">
+        <v>0.02349801086191832</v>
+      </c>
+      <c r="F9">
+        <v>-0.03465580936031743</v>
+      </c>
+      <c r="G9">
+        <v>-0.02438318976486493</v>
+      </c>
+      <c r="H9">
+        <v>-0.0457221402969751</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03046185093393925</v>
+        <v>0.0454321328852481</v>
       </c>
       <c r="C10">
-        <v>-0.03146147993698859</v>
+        <v>-0.06167478324648824</v>
       </c>
       <c r="D10">
-        <v>0.1769389035447419</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1756331162891901</v>
+      </c>
+      <c r="E10">
+        <v>0.039734216719018</v>
+      </c>
+      <c r="F10">
+        <v>-0.0511130475546196</v>
+      </c>
+      <c r="G10">
+        <v>0.03528063032690872</v>
+      </c>
+      <c r="H10">
+        <v>0.05715212016597585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07182966211297857</v>
+        <v>0.07594886974450342</v>
       </c>
       <c r="C11">
-        <v>-0.04199692626915499</v>
+        <v>-0.01996500722121476</v>
       </c>
       <c r="D11">
-        <v>-0.05367946088845119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06601125060545072</v>
+      </c>
+      <c r="E11">
+        <v>-0.004498894377207466</v>
+      </c>
+      <c r="F11">
+        <v>-0.03075655135316188</v>
+      </c>
+      <c r="G11">
+        <v>-0.03497584486960604</v>
+      </c>
+      <c r="H11">
+        <v>-0.07245904889713846</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.060676920532267</v>
+        <v>0.06951753723020794</v>
       </c>
       <c r="C12">
-        <v>-0.05021125973283888</v>
+        <v>-0.03183260893296445</v>
       </c>
       <c r="D12">
-        <v>-0.04554070176795202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05124507198419911</v>
+      </c>
+      <c r="E12">
+        <v>0.01160170496606629</v>
+      </c>
+      <c r="F12">
+        <v>-0.02386494614155241</v>
+      </c>
+      <c r="G12">
+        <v>-0.01937753971488657</v>
+      </c>
+      <c r="H12">
+        <v>-0.0348416226653299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06850717157744987</v>
+        <v>0.06832791252846999</v>
       </c>
       <c r="C13">
-        <v>-0.03407599843893335</v>
+        <v>-0.01659255657978343</v>
       </c>
       <c r="D13">
-        <v>-0.04260208322548544</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03805870203210263</v>
+      </c>
+      <c r="E13">
+        <v>0.006495521582239231</v>
+      </c>
+      <c r="F13">
+        <v>-0.03010014917927258</v>
+      </c>
+      <c r="G13">
+        <v>-0.01030000132918827</v>
+      </c>
+      <c r="H13">
+        <v>-0.05092020963974562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03381113921113529</v>
+        <v>0.04049623787089893</v>
       </c>
       <c r="C14">
-        <v>-0.03245263220739137</v>
+        <v>-0.02666703718106576</v>
       </c>
       <c r="D14">
-        <v>0.008785665153296866</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01348664778847631</v>
+      </c>
+      <c r="E14">
+        <v>0.02587456765188679</v>
+      </c>
+      <c r="F14">
+        <v>-0.01945200553246524</v>
+      </c>
+      <c r="G14">
+        <v>-0.024280154478911</v>
+      </c>
+      <c r="H14">
+        <v>-0.04938647433210054</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04257687880341927</v>
+        <v>0.04120128390974198</v>
       </c>
       <c r="C15">
-        <v>-0.008754097458190275</v>
+        <v>-0.001766842841299849</v>
       </c>
       <c r="D15">
-        <v>-0.01942343650104219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007330623434555367</v>
+      </c>
+      <c r="E15">
+        <v>0.03683848765300019</v>
+      </c>
+      <c r="F15">
+        <v>-0.003615844953554949</v>
+      </c>
+      <c r="G15">
+        <v>-0.03297273937760717</v>
+      </c>
+      <c r="H15">
+        <v>-0.02462466589603371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06108934615978996</v>
+        <v>0.07136478479596625</v>
       </c>
       <c r="C16">
-        <v>-0.03911677550991312</v>
+        <v>-0.02245951676815297</v>
       </c>
       <c r="D16">
-        <v>-0.05004562961356833</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06362113689345096</v>
+      </c>
+      <c r="E16">
+        <v>0.005930132386112934</v>
+      </c>
+      <c r="F16">
+        <v>-0.0300890635455035</v>
+      </c>
+      <c r="G16">
+        <v>-0.01917301064240301</v>
+      </c>
+      <c r="H16">
+        <v>-0.05293867276188344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06426647112042427</v>
+        <v>0.0631376076115244</v>
       </c>
       <c r="C20">
-        <v>-0.02505906136504785</v>
+        <v>-0.006812570138706315</v>
       </c>
       <c r="D20">
-        <v>-0.04747031807471877</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04005691410370261</v>
+      </c>
+      <c r="E20">
+        <v>0.008392749485358774</v>
+      </c>
+      <c r="F20">
+        <v>-0.03050306950280579</v>
+      </c>
+      <c r="G20">
+        <v>-0.02497193848063206</v>
+      </c>
+      <c r="H20">
+        <v>-0.04383339972581418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02905763670368968</v>
+        <v>0.02784423517291111</v>
       </c>
       <c r="C21">
-        <v>0.0009588594644559651</v>
+        <v>0.009633621589028588</v>
       </c>
       <c r="D21">
-        <v>-0.01996381628062576</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02157587292494242</v>
+      </c>
+      <c r="E21">
+        <v>0.03972104129076972</v>
+      </c>
+      <c r="F21">
+        <v>0.01052839904445972</v>
+      </c>
+      <c r="G21">
+        <v>-0.008649441744115053</v>
+      </c>
+      <c r="H21">
+        <v>0.05294988100012011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07989345200559694</v>
+        <v>0.07072389255175197</v>
       </c>
       <c r="C22">
-        <v>-0.05965791169429196</v>
+        <v>-0.0310148179338181</v>
       </c>
       <c r="D22">
-        <v>-0.1449019419110142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1057106649712497</v>
+      </c>
+      <c r="E22">
+        <v>0.6116896413072395</v>
+      </c>
+      <c r="F22">
+        <v>0.06310366149540431</v>
+      </c>
+      <c r="G22">
+        <v>0.1537978315432884</v>
+      </c>
+      <c r="H22">
+        <v>0.1526643888409624</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0809081231159785</v>
+        <v>0.07163771603413585</v>
       </c>
       <c r="C23">
-        <v>-0.05835284189448472</v>
+        <v>-0.02967892232032817</v>
       </c>
       <c r="D23">
-        <v>-0.1460167524173015</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1067352189936748</v>
+      </c>
+      <c r="E23">
+        <v>0.6137664269155779</v>
+      </c>
+      <c r="F23">
+        <v>0.0624497171885983</v>
+      </c>
+      <c r="G23">
+        <v>0.1486885018950893</v>
+      </c>
+      <c r="H23">
+        <v>0.1479167466702964</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07699633226062209</v>
+        <v>0.08137355049949567</v>
       </c>
       <c r="C24">
-        <v>-0.05093776359526062</v>
+        <v>-0.02835072884432502</v>
       </c>
       <c r="D24">
-        <v>-0.05846823708698441</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06392001732798648</v>
+      </c>
+      <c r="E24">
+        <v>0.01060220689668929</v>
+      </c>
+      <c r="F24">
+        <v>-0.03966120866189162</v>
+      </c>
+      <c r="G24">
+        <v>-0.03147864996809932</v>
+      </c>
+      <c r="H24">
+        <v>-0.0378998796760295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07536245422997694</v>
+        <v>0.07989542398911613</v>
       </c>
       <c r="C25">
-        <v>-0.05305762650008706</v>
+        <v>-0.03223364070452926</v>
       </c>
       <c r="D25">
-        <v>-0.05920522329987041</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05260672569210476</v>
+      </c>
+      <c r="E25">
+        <v>0.01900611741174137</v>
+      </c>
+      <c r="F25">
+        <v>-0.03531451493047599</v>
+      </c>
+      <c r="G25">
+        <v>-0.04186403742760383</v>
+      </c>
+      <c r="H25">
+        <v>-0.04533130941831044</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04595560392894956</v>
+        <v>0.04564008240223079</v>
       </c>
       <c r="C26">
-        <v>-0.009385112574933999</v>
+        <v>0.0008631837121352585</v>
       </c>
       <c r="D26">
-        <v>-0.01315529732823571</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0202870047969614</v>
+      </c>
+      <c r="E26">
+        <v>0.04046627436284213</v>
+      </c>
+      <c r="F26">
+        <v>-0.0396267305623811</v>
+      </c>
+      <c r="G26">
+        <v>-0.009245863307702535</v>
+      </c>
+      <c r="H26">
+        <v>-0.04477548455642604</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04779453152616253</v>
+        <v>0.07012606585213542</v>
       </c>
       <c r="C28">
-        <v>-0.07394927617648371</v>
+        <v>-0.1169848084784584</v>
       </c>
       <c r="D28">
-        <v>0.3014729276851341</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2950497576059041</v>
+      </c>
+      <c r="E28">
+        <v>0.03669454159578757</v>
+      </c>
+      <c r="F28">
+        <v>-0.06084967571149774</v>
+      </c>
+      <c r="G28">
+        <v>-0.02364165159908912</v>
+      </c>
+      <c r="H28">
+        <v>0.04829336568354874</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04556567340055414</v>
+        <v>0.04772112793830868</v>
       </c>
       <c r="C29">
-        <v>-0.0302991371276657</v>
+        <v>-0.02197109087032782</v>
       </c>
       <c r="D29">
-        <v>-0.001890143373876096</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01233447178961671</v>
+      </c>
+      <c r="E29">
+        <v>0.05730424179358374</v>
+      </c>
+      <c r="F29">
+        <v>-0.01484872145152242</v>
+      </c>
+      <c r="G29">
+        <v>-0.01092561973523406</v>
+      </c>
+      <c r="H29">
+        <v>-0.06312792656211651</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1295729859755519</v>
+        <v>0.1272809254741822</v>
       </c>
       <c r="C30">
-        <v>-0.08620631844117163</v>
+        <v>-0.0532706344184341</v>
       </c>
       <c r="D30">
-        <v>-0.1153506985391242</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08217035660861156</v>
+      </c>
+      <c r="E30">
+        <v>0.05347460096045803</v>
+      </c>
+      <c r="F30">
+        <v>-0.01340030595769504</v>
+      </c>
+      <c r="G30">
+        <v>-0.0823690104872542</v>
+      </c>
+      <c r="H30">
+        <v>0.03637085920553235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04834421650823875</v>
+        <v>0.04926759857817496</v>
       </c>
       <c r="C31">
-        <v>-0.02273188936928203</v>
+        <v>-0.009327213126982514</v>
       </c>
       <c r="D31">
-        <v>-0.02078872133474321</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03507545457759181</v>
+      </c>
+      <c r="E31">
+        <v>0.02462066683949766</v>
+      </c>
+      <c r="F31">
+        <v>-0.007958578301004018</v>
+      </c>
+      <c r="G31">
+        <v>0.006504091604302441</v>
+      </c>
+      <c r="H31">
+        <v>-0.07043576679897515</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03655275659049171</v>
+        <v>0.03975902979492976</v>
       </c>
       <c r="C32">
-        <v>-0.0240099054251301</v>
+        <v>-0.02285154457104713</v>
       </c>
       <c r="D32">
-        <v>-0.02616270070232132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01019180023902179</v>
+      </c>
+      <c r="E32">
+        <v>0.05349623732607505</v>
+      </c>
+      <c r="F32">
+        <v>0.005455962384698598</v>
+      </c>
+      <c r="G32">
+        <v>-0.03508615015436566</v>
+      </c>
+      <c r="H32">
+        <v>-0.03102121569580543</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08655767213908699</v>
+        <v>0.09480118670959814</v>
       </c>
       <c r="C33">
-        <v>-0.040293948289972</v>
+        <v>-0.01950272887442648</v>
       </c>
       <c r="D33">
-        <v>-0.05051924300659903</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04937536546582635</v>
+      </c>
+      <c r="E33">
+        <v>0.01404717549737692</v>
+      </c>
+      <c r="F33">
+        <v>-0.006887159904765359</v>
+      </c>
+      <c r="G33">
+        <v>-0.01575952540041072</v>
+      </c>
+      <c r="H33">
+        <v>-0.06376446183983528</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05959783450041412</v>
+        <v>0.06446020798129942</v>
       </c>
       <c r="C34">
-        <v>-0.02472111235922319</v>
+        <v>-0.007690095316306144</v>
       </c>
       <c r="D34">
-        <v>-0.05120809635272632</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04968493870096277</v>
+      </c>
+      <c r="E34">
+        <v>0.006952896410948788</v>
+      </c>
+      <c r="F34">
+        <v>-0.02426438782029569</v>
+      </c>
+      <c r="G34">
+        <v>-0.01855752458666983</v>
+      </c>
+      <c r="H34">
+        <v>-0.05147701158774234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03686885670347562</v>
+        <v>0.03784073795199092</v>
       </c>
       <c r="C35">
-        <v>-0.007379812647312861</v>
+        <v>-0.0009817913131121914</v>
       </c>
       <c r="D35">
-        <v>-0.02028078298413059</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01661658576614004</v>
+      </c>
+      <c r="E35">
+        <v>0.02268018746163018</v>
+      </c>
+      <c r="F35">
+        <v>0.01644795086472972</v>
+      </c>
+      <c r="G35">
+        <v>-0.002278987235838411</v>
+      </c>
+      <c r="H35">
+        <v>-0.02641181898472534</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02493431528571674</v>
+        <v>0.02899222866966954</v>
       </c>
       <c r="C36">
-        <v>-0.01830777638737337</v>
+        <v>-0.01353940233116542</v>
       </c>
       <c r="D36">
-        <v>-0.01989399757379104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01831711914562253</v>
+      </c>
+      <c r="E36">
+        <v>0.03002628599833583</v>
+      </c>
+      <c r="F36">
+        <v>-0.03178920171055361</v>
+      </c>
+      <c r="G36">
+        <v>-0.004726570216546688</v>
+      </c>
+      <c r="H36">
+        <v>-0.04636613265558318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04535317402671666</v>
+        <v>0.04679589750421079</v>
       </c>
       <c r="C38">
-        <v>-0.003166319252901031</v>
+        <v>0.004447869901201847</v>
       </c>
       <c r="D38">
-        <v>-0.01739544600994621</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01814101047014316</v>
+      </c>
+      <c r="E38">
+        <v>0.05064525457774243</v>
+      </c>
+      <c r="F38">
+        <v>-0.00076734493483851</v>
+      </c>
+      <c r="G38">
+        <v>-0.002760050961818574</v>
+      </c>
+      <c r="H38">
+        <v>-0.02246618250275897</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09085554284488977</v>
+        <v>0.1000602431657344</v>
       </c>
       <c r="C39">
-        <v>-0.06825030900654855</v>
+        <v>-0.04448788782584109</v>
       </c>
       <c r="D39">
-        <v>-0.06035134732811494</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06981099960614061</v>
+      </c>
+      <c r="E39">
+        <v>-0.001761839745801066</v>
+      </c>
+      <c r="F39">
+        <v>0.002934125334542008</v>
+      </c>
+      <c r="G39">
+        <v>-0.04985788826888936</v>
+      </c>
+      <c r="H39">
+        <v>-0.02760772137571606</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.08085761989992603</v>
+        <v>0.06305165104844765</v>
       </c>
       <c r="C40">
-        <v>-0.03351615965861743</v>
+        <v>-0.002903874659408158</v>
       </c>
       <c r="D40">
-        <v>-0.01417443675126029</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03311276400126986</v>
+      </c>
+      <c r="E40">
+        <v>0.03459457499878188</v>
+      </c>
+      <c r="F40">
+        <v>0.03233179329515842</v>
+      </c>
+      <c r="G40">
+        <v>-0.05412195537097672</v>
+      </c>
+      <c r="H40">
+        <v>0.07518005130799126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04466797686677067</v>
+        <v>0.04614423627550189</v>
       </c>
       <c r="C41">
-        <v>-0.003886311967208087</v>
+        <v>0.007155718032482427</v>
       </c>
       <c r="D41">
-        <v>-0.03907633180287168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03204185565266677</v>
+      </c>
+      <c r="E41">
+        <v>0.003486817037559362</v>
+      </c>
+      <c r="F41">
+        <v>0.01108330758760908</v>
+      </c>
+      <c r="G41">
+        <v>-0.01676829306997004</v>
+      </c>
+      <c r="H41">
+        <v>-0.02178691484753316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05408485334913967</v>
+        <v>0.06072072618189268</v>
       </c>
       <c r="C43">
-        <v>-0.02541602187315013</v>
+        <v>-0.01419668166094096</v>
       </c>
       <c r="D43">
-        <v>-0.01324079015522696</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02841091224003244</v>
+      </c>
+      <c r="E43">
+        <v>0.02229164507337276</v>
+      </c>
+      <c r="F43">
+        <v>-0.01755478249646451</v>
+      </c>
+      <c r="G43">
+        <v>0.008427321643607674</v>
+      </c>
+      <c r="H43">
+        <v>-0.06034274834493317</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09663337844162673</v>
+        <v>0.09453192981861856</v>
       </c>
       <c r="C44">
-        <v>-0.08197654280175024</v>
+        <v>-0.05177478404807181</v>
       </c>
       <c r="D44">
-        <v>-0.07808228077679502</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.07287232626614254</v>
+      </c>
+      <c r="E44">
+        <v>0.05839229793893873</v>
+      </c>
+      <c r="F44">
+        <v>-0.09605400246362415</v>
+      </c>
+      <c r="G44">
+        <v>-0.0540800237914383</v>
+      </c>
+      <c r="H44">
+        <v>-0.08910843780454414</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02729451703279045</v>
+        <v>0.0352417712728102</v>
       </c>
       <c r="C46">
-        <v>-0.01423887053169181</v>
+        <v>-0.008241047185888004</v>
       </c>
       <c r="D46">
-        <v>-0.03309070582790735</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03672800276974929</v>
+      </c>
+      <c r="E46">
+        <v>0.03137453373704594</v>
+      </c>
+      <c r="F46">
+        <v>-0.01576032378169346</v>
+      </c>
+      <c r="G46">
+        <v>-0.009192142931062387</v>
+      </c>
+      <c r="H46">
+        <v>-0.017732351424044</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0362389852509375</v>
+        <v>0.04221962743251477</v>
       </c>
       <c r="C47">
-        <v>-0.02508328513226175</v>
+        <v>-0.01930864252899962</v>
       </c>
       <c r="D47">
-        <v>0.0007608610269630829</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.007050540865939802</v>
+      </c>
+      <c r="E47">
+        <v>0.03939241007543928</v>
+      </c>
+      <c r="F47">
+        <v>0.01006603817476531</v>
+      </c>
+      <c r="G47">
+        <v>0.03291587972876434</v>
+      </c>
+      <c r="H47">
+        <v>-0.02599919980904316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0364939754374014</v>
+        <v>0.0397258756008206</v>
       </c>
       <c r="C48">
-        <v>-0.01872654195697704</v>
+        <v>-0.01009644920509456</v>
       </c>
       <c r="D48">
-        <v>-0.03117279703462453</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02090221103843583</v>
+      </c>
+      <c r="E48">
+        <v>0.0380413739164577</v>
+      </c>
+      <c r="F48">
+        <v>-0.01327256263273397</v>
+      </c>
+      <c r="G48">
+        <v>-0.02186355044590612</v>
+      </c>
+      <c r="H48">
+        <v>-0.02500954784057764</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1629612169500149</v>
+        <v>0.1980474891789101</v>
       </c>
       <c r="C49">
-        <v>-0.04644251677618012</v>
+        <v>-0.02858541987490431</v>
       </c>
       <c r="D49">
-        <v>-0.006120231104842251</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02629830546530734</v>
+      </c>
+      <c r="E49">
+        <v>-0.1678090687479808</v>
+      </c>
+      <c r="F49">
+        <v>-0.03888058960352087</v>
+      </c>
+      <c r="G49">
+        <v>0.1308384403672251</v>
+      </c>
+      <c r="H49">
+        <v>0.2405908925867064</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0426306812340235</v>
+        <v>0.04549529358183321</v>
       </c>
       <c r="C50">
-        <v>-0.02059809578117139</v>
+        <v>-0.009564372462422754</v>
       </c>
       <c r="D50">
-        <v>-0.0395086886084068</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.04027776631981306</v>
+      </c>
+      <c r="E50">
+        <v>0.03653699508449323</v>
+      </c>
+      <c r="F50">
+        <v>-0.008414792523027095</v>
+      </c>
+      <c r="G50">
+        <v>-0.00130536096471192</v>
+      </c>
+      <c r="H50">
+        <v>-0.07627167245455882</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02924858591547382</v>
+        <v>0.03491324941800481</v>
       </c>
       <c r="C51">
-        <v>-0.0103284182388462</v>
+        <v>-0.005732018441929471</v>
       </c>
       <c r="D51">
-        <v>-0.0004332127870291767</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.001476471381431114</v>
+      </c>
+      <c r="E51">
+        <v>0.01081427450673688</v>
+      </c>
+      <c r="F51">
+        <v>-0.01136898287185934</v>
+      </c>
+      <c r="G51">
+        <v>0.01657248959490053</v>
+      </c>
+      <c r="H51">
+        <v>0.01729951502397904</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1553112160587252</v>
+        <v>0.1602081975249491</v>
       </c>
       <c r="C53">
-        <v>-0.07211117263180664</v>
+        <v>-0.0431968258011426</v>
       </c>
       <c r="D53">
-        <v>0.001468133841459843</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02759415625535584</v>
+      </c>
+      <c r="E53">
+        <v>-0.03144342742954523</v>
+      </c>
+      <c r="F53">
+        <v>0.001226643259792307</v>
+      </c>
+      <c r="G53">
+        <v>-0.01455890216323438</v>
+      </c>
+      <c r="H53">
+        <v>-0.1996906268259451</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05761402040159457</v>
+        <v>0.05807019621716779</v>
       </c>
       <c r="C54">
-        <v>-0.02036595161459176</v>
+        <v>-0.01031005992210233</v>
       </c>
       <c r="D54">
-        <v>-0.01780469273439547</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01550658132196152</v>
+      </c>
+      <c r="E54">
+        <v>0.05207947286812869</v>
+      </c>
+      <c r="F54">
+        <v>-0.01527926944965337</v>
+      </c>
+      <c r="G54">
+        <v>-0.04981414568015424</v>
+      </c>
+      <c r="H54">
+        <v>-0.03773227142616371</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1029576010875963</v>
+        <v>0.1039280121782696</v>
       </c>
       <c r="C55">
-        <v>-0.05096882879228357</v>
+        <v>-0.02971148604220054</v>
       </c>
       <c r="D55">
-        <v>-0.01726500186979838</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03099107283259809</v>
+      </c>
+      <c r="E55">
+        <v>0.002486789447931229</v>
+      </c>
+      <c r="F55">
+        <v>-0.01357198686215658</v>
+      </c>
+      <c r="G55">
+        <v>-0.02037953891401133</v>
+      </c>
+      <c r="H55">
+        <v>-0.1595495779340895</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1513199042014974</v>
+        <v>0.1575857263395906</v>
       </c>
       <c r="C56">
-        <v>-0.08206211737425627</v>
+        <v>-0.04982868501311603</v>
       </c>
       <c r="D56">
-        <v>-0.003089927934193909</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04165297667123877</v>
+      </c>
+      <c r="E56">
+        <v>-0.01329541197317398</v>
+      </c>
+      <c r="F56">
+        <v>-0.021825478182393</v>
+      </c>
+      <c r="G56">
+        <v>-0.01390277621614469</v>
+      </c>
+      <c r="H56">
+        <v>-0.2034479381879939</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1329689299791343</v>
+        <v>0.1001627068751792</v>
       </c>
       <c r="C58">
-        <v>0.008625968028929667</v>
+        <v>0.05055426699584832</v>
       </c>
       <c r="D58">
-        <v>-0.04556030607357877</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03169908561491552</v>
+      </c>
+      <c r="E58">
+        <v>0.1235099770248732</v>
+      </c>
+      <c r="F58">
+        <v>-0.01839846197312147</v>
+      </c>
+      <c r="G58">
+        <v>0.08438054847858027</v>
+      </c>
+      <c r="H58">
+        <v>0.149308929233758</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1221783608517455</v>
+        <v>0.1465868818599713</v>
       </c>
       <c r="C59">
-        <v>-0.08197601725080655</v>
+        <v>-0.1213219518354638</v>
       </c>
       <c r="D59">
-        <v>0.3919705189498429</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3511092191389959</v>
+      </c>
+      <c r="E59">
+        <v>0.03339877019560079</v>
+      </c>
+      <c r="F59">
+        <v>-0.004900317428626212</v>
+      </c>
+      <c r="G59">
+        <v>0.009788012219986465</v>
+      </c>
+      <c r="H59">
+        <v>-0.01236218201505739</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2098611070686537</v>
+        <v>0.2390402322131494</v>
       </c>
       <c r="C60">
-        <v>-0.08837176344334327</v>
+        <v>-0.0545640059019958</v>
       </c>
       <c r="D60">
-        <v>-0.01566210313282753</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04606932024049995</v>
+      </c>
+      <c r="E60">
+        <v>-0.1163442223810442</v>
+      </c>
+      <c r="F60">
+        <v>-0.04454368063732168</v>
+      </c>
+      <c r="G60">
+        <v>0.01663959329882639</v>
+      </c>
+      <c r="H60">
+        <v>0.1422994993822206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08100570444679915</v>
+        <v>0.08668977500666419</v>
       </c>
       <c r="C61">
-        <v>-0.04567747784243203</v>
+        <v>-0.02765878417421459</v>
       </c>
       <c r="D61">
-        <v>-0.03405682315619996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04450187777873036</v>
+      </c>
+      <c r="E61">
+        <v>0.005453005105791305</v>
+      </c>
+      <c r="F61">
+        <v>-0.004224902812797872</v>
+      </c>
+      <c r="G61">
+        <v>-0.0225103148748958</v>
+      </c>
+      <c r="H61">
+        <v>-0.06253872408614194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1334085932448791</v>
+        <v>0.1364320723874973</v>
       </c>
       <c r="C62">
-        <v>-0.0557700042186457</v>
+        <v>-0.02515513938524332</v>
       </c>
       <c r="D62">
-        <v>-0.00532476818889342</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04495812520073375</v>
+      </c>
+      <c r="E62">
+        <v>-0.04905277193770353</v>
+      </c>
+      <c r="F62">
+        <v>0.006812686564424594</v>
+      </c>
+      <c r="G62">
+        <v>-0.05006819294051155</v>
+      </c>
+      <c r="H62">
+        <v>-0.2035595847178963</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05295704713495243</v>
+        <v>0.05198756453728648</v>
       </c>
       <c r="C63">
-        <v>-0.02315803298251336</v>
+        <v>-0.01282943129324651</v>
       </c>
       <c r="D63">
-        <v>-0.02424526966205271</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02106397630223884</v>
+      </c>
+      <c r="E63">
+        <v>0.04490900785190223</v>
+      </c>
+      <c r="F63">
+        <v>0.002175459777886431</v>
+      </c>
+      <c r="G63">
+        <v>-0.02729027549310173</v>
+      </c>
+      <c r="H63">
+        <v>-0.03377130464072113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1054766749333229</v>
+        <v>0.1088688427804391</v>
       </c>
       <c r="C64">
-        <v>-0.02876045186471829</v>
+        <v>-0.01118971565270113</v>
       </c>
       <c r="D64">
-        <v>-0.02604721986829882</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02899849235049758</v>
+      </c>
+      <c r="E64">
+        <v>0.0345632689867633</v>
+      </c>
+      <c r="F64">
+        <v>-0.04445246196632194</v>
+      </c>
+      <c r="G64">
+        <v>-0.06541871725902935</v>
+      </c>
+      <c r="H64">
+        <v>-0.02487545626345674</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1270721026038822</v>
+        <v>0.1286576219072476</v>
       </c>
       <c r="C65">
-        <v>-0.0555774442179342</v>
+        <v>-0.03727941579329466</v>
       </c>
       <c r="D65">
-        <v>-0.01152893169005837</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01276848085479831</v>
+      </c>
+      <c r="E65">
+        <v>-0.01195501526910739</v>
+      </c>
+      <c r="F65">
+        <v>-0.04245541159629838</v>
+      </c>
+      <c r="G65">
+        <v>-0.06918234696634942</v>
+      </c>
+      <c r="H65">
+        <v>0.1404629187269185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1495743081714694</v>
+        <v>0.1523542398921221</v>
       </c>
       <c r="C66">
-        <v>-0.06746074119959845</v>
+        <v>-0.03036091943879723</v>
       </c>
       <c r="D66">
-        <v>-0.09729123804876816</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1016251368908326</v>
+      </c>
+      <c r="E66">
+        <v>-0.02818978436162975</v>
+      </c>
+      <c r="F66">
+        <v>0.002113010414864535</v>
+      </c>
+      <c r="G66">
+        <v>-0.06545144712435912</v>
+      </c>
+      <c r="H66">
+        <v>-0.0883147960926496</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0765629759185608</v>
+        <v>0.08617209496086702</v>
       </c>
       <c r="C67">
-        <v>-0.009024315361823212</v>
+        <v>0.002640094606266409</v>
       </c>
       <c r="D67">
-        <v>-0.02238306595014585</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03151643814399856</v>
+      </c>
+      <c r="E67">
+        <v>0.02071947586494243</v>
+      </c>
+      <c r="F67">
+        <v>-0.01577940196221186</v>
+      </c>
+      <c r="G67">
+        <v>0.01159360953837084</v>
+      </c>
+      <c r="H67">
+        <v>-0.02051154077554156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05624530873443035</v>
+        <v>0.0639412641530346</v>
       </c>
       <c r="C68">
-        <v>-0.05306353635151553</v>
+        <v>-0.08856159465573239</v>
       </c>
       <c r="D68">
-        <v>0.2572251119889656</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2611935694730117</v>
+      </c>
+      <c r="E68">
+        <v>0.04657851005937394</v>
+      </c>
+      <c r="F68">
+        <v>-0.01908702164395347</v>
+      </c>
+      <c r="G68">
+        <v>0.004857173414692211</v>
+      </c>
+      <c r="H68">
+        <v>-0.02101809196667899</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05429147831272303</v>
+        <v>0.05298226123031247</v>
       </c>
       <c r="C69">
-        <v>-0.01598294254475565</v>
+        <v>-0.002754587859058038</v>
       </c>
       <c r="D69">
-        <v>-0.02496786858133272</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02037745731889373</v>
+      </c>
+      <c r="E69">
+        <v>0.02355814598776367</v>
+      </c>
+      <c r="F69">
+        <v>0.01314007402618664</v>
+      </c>
+      <c r="G69">
+        <v>0.003320812808364606</v>
+      </c>
+      <c r="H69">
+        <v>-0.04696082553716388</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002846618307577931</v>
+        <v>0.02817635752458605</v>
       </c>
       <c r="C70">
-        <v>0.005549267186260502</v>
+        <v>0.001209300857183824</v>
       </c>
       <c r="D70">
-        <v>0.01341436838853878</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.008225051128114698</v>
+      </c>
+      <c r="E70">
+        <v>-0.02152540094389125</v>
+      </c>
+      <c r="F70">
+        <v>0.008115671445923877</v>
+      </c>
+      <c r="G70">
+        <v>0.02725039257495248</v>
+      </c>
+      <c r="H70">
+        <v>0.03876654697079812</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05576732207630609</v>
+        <v>0.06944246196792883</v>
       </c>
       <c r="C71">
-        <v>-0.05292659879244589</v>
+        <v>-0.09749142405337098</v>
       </c>
       <c r="D71">
-        <v>0.2921989242648225</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.28895771306449</v>
+      </c>
+      <c r="E71">
+        <v>0.04366713880117207</v>
+      </c>
+      <c r="F71">
+        <v>-0.04668935382489231</v>
+      </c>
+      <c r="G71">
+        <v>-0.005603151368405572</v>
+      </c>
+      <c r="H71">
+        <v>-0.01340292365828906</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1425519328884184</v>
+        <v>0.1438513452100069</v>
       </c>
       <c r="C72">
-        <v>-0.05708555244307686</v>
+        <v>-0.02912727781717149</v>
       </c>
       <c r="D72">
-        <v>0.001279646578296127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.005068993989144035</v>
+      </c>
+      <c r="E72">
+        <v>-0.05161971238966893</v>
+      </c>
+      <c r="F72">
+        <v>0.1545207401164568</v>
+      </c>
+      <c r="G72">
+        <v>-0.1177646177835155</v>
+      </c>
+      <c r="H72">
+        <v>-0.0035601248814616</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2877215036215532</v>
+        <v>0.2903860077289256</v>
       </c>
       <c r="C73">
-        <v>-0.08999106131856453</v>
+        <v>-0.02046800115037924</v>
       </c>
       <c r="D73">
-        <v>-0.04275123053567127</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09379886983180374</v>
+      </c>
+      <c r="E73">
+        <v>-0.2561877046426936</v>
+      </c>
+      <c r="F73">
+        <v>-0.07475092971777282</v>
+      </c>
+      <c r="G73">
+        <v>0.2489618309706237</v>
+      </c>
+      <c r="H73">
+        <v>0.4070213721348225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08469498269795624</v>
+        <v>0.09259200220278728</v>
       </c>
       <c r="C74">
-        <v>-0.07505595355644488</v>
+        <v>-0.05404984397554425</v>
       </c>
       <c r="D74">
-        <v>-0.005701415414289632</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03950641035078217</v>
+      </c>
+      <c r="E74">
+        <v>-0.003897274545462738</v>
+      </c>
+      <c r="F74">
+        <v>0.001782884735540394</v>
+      </c>
+      <c r="G74">
+        <v>0.0234774884057852</v>
+      </c>
+      <c r="H74">
+        <v>-0.131096251918581</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1010028794083691</v>
+        <v>0.1035628298702924</v>
       </c>
       <c r="C75">
-        <v>-0.04771034415816</v>
+        <v>-0.02161437104940503</v>
       </c>
       <c r="D75">
-        <v>-0.01450681324462735</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02539728224569008</v>
+      </c>
+      <c r="E75">
+        <v>-0.0006768209978402951</v>
+      </c>
+      <c r="F75">
+        <v>0.002081550947237904</v>
+      </c>
+      <c r="G75">
+        <v>0.01116136275888057</v>
+      </c>
+      <c r="H75">
+        <v>-0.09887749819328955</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1339758967738182</v>
+        <v>0.1419285463468685</v>
       </c>
       <c r="C76">
-        <v>-0.07754901328553121</v>
+        <v>-0.04908868224740713</v>
       </c>
       <c r="D76">
-        <v>-0.02481208576881061</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05434628141731236</v>
+      </c>
+      <c r="E76">
+        <v>0.01628934969487119</v>
+      </c>
+      <c r="F76">
+        <v>-0.03139199866022514</v>
+      </c>
+      <c r="G76">
+        <v>-0.02642235306397117</v>
+      </c>
+      <c r="H76">
+        <v>-0.2195504972321526</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1193217087220226</v>
+        <v>0.1038327386895561</v>
       </c>
       <c r="C77">
-        <v>-0.01025348783767213</v>
+        <v>0.02206498513788245</v>
       </c>
       <c r="D77">
-        <v>-0.08134016555938185</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.03552502202114726</v>
+      </c>
+      <c r="E77">
+        <v>0.04219155193451102</v>
+      </c>
+      <c r="F77">
+        <v>-0.06826227045994167</v>
+      </c>
+      <c r="G77">
+        <v>-0.8050454062721563</v>
+      </c>
+      <c r="H77">
+        <v>0.3386709041727174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1078325390386966</v>
+        <v>0.1520523148875348</v>
       </c>
       <c r="C78">
-        <v>-0.03484886891953596</v>
+        <v>-0.02763248915883758</v>
       </c>
       <c r="D78">
-        <v>-0.09451875133551466</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08165093658507386</v>
+      </c>
+      <c r="E78">
+        <v>0.05118205651010849</v>
+      </c>
+      <c r="F78">
+        <v>-0.05651366595746496</v>
+      </c>
+      <c r="G78">
+        <v>-0.0582191844402247</v>
+      </c>
+      <c r="H78">
+        <v>0.06068707022047014</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1467087639134527</v>
+        <v>0.1473988313639468</v>
       </c>
       <c r="C79">
-        <v>-0.06388880143164469</v>
+        <v>-0.02945579566377211</v>
       </c>
       <c r="D79">
-        <v>-0.02460716386463486</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.04065465348353951</v>
+      </c>
+      <c r="E79">
+        <v>-0.01585096413589975</v>
+      </c>
+      <c r="F79">
+        <v>-0.0202487969310125</v>
+      </c>
+      <c r="G79">
+        <v>-0.02388225422503801</v>
+      </c>
+      <c r="H79">
+        <v>-0.1579766216806656</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04152230033520817</v>
+        <v>0.04170481676766725</v>
       </c>
       <c r="C80">
-        <v>-0.01898689951696423</v>
+        <v>-0.01082129875869713</v>
       </c>
       <c r="D80">
-        <v>-0.03212712724464344</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01614057466322514</v>
+      </c>
+      <c r="E80">
+        <v>-0.03917314611269431</v>
+      </c>
+      <c r="F80">
+        <v>-0.001841769956497933</v>
+      </c>
+      <c r="G80">
+        <v>0.020461988283937</v>
+      </c>
+      <c r="H80">
+        <v>-0.03792918820673793</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1243016637973541</v>
+        <v>0.1255947551554582</v>
       </c>
       <c r="C81">
-        <v>-0.05742302144352934</v>
+        <v>-0.03075909403788043</v>
       </c>
       <c r="D81">
-        <v>-0.02780125852222527</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.03042860828094082</v>
+      </c>
+      <c r="E81">
+        <v>0.008455654769553487</v>
+      </c>
+      <c r="F81">
+        <v>-0.01228844207594623</v>
+      </c>
+      <c r="G81">
+        <v>0.01528558177765767</v>
+      </c>
+      <c r="H81">
+        <v>-0.1456221928982946</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1333650600537715</v>
+        <v>0.1306655029655358</v>
       </c>
       <c r="C82">
-        <v>-0.06966584540260815</v>
+        <v>-0.0402486032564814</v>
       </c>
       <c r="D82">
-        <v>-0.004866064635362407</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.03851315682592539</v>
+      </c>
+      <c r="E82">
+        <v>-0.02083529982974023</v>
+      </c>
+      <c r="F82">
+        <v>-0.040371749545952</v>
+      </c>
+      <c r="G82">
+        <v>0.00880864535240841</v>
+      </c>
+      <c r="H82">
+        <v>-0.2211756364905251</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06445529277436023</v>
+        <v>0.07970964074373885</v>
       </c>
       <c r="C83">
-        <v>0.03130514086589484</v>
+        <v>0.04160892334098993</v>
       </c>
       <c r="D83">
-        <v>-0.02393414713772402</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02067453242399983</v>
+      </c>
+      <c r="E83">
+        <v>0.02396914485003464</v>
+      </c>
+      <c r="F83">
+        <v>-0.03691402951810659</v>
+      </c>
+      <c r="G83">
+        <v>0.06892288207602731</v>
+      </c>
+      <c r="H83">
+        <v>0.02899357351488009</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02872249876926181</v>
+        <v>0.03604907341854094</v>
       </c>
       <c r="C84">
-        <v>-0.030155496561137</v>
+        <v>-0.02000785100767258</v>
       </c>
       <c r="D84">
-        <v>-0.03291534473370297</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03769579868176091</v>
+      </c>
+      <c r="E84">
+        <v>0.01875567806778385</v>
+      </c>
+      <c r="F84">
+        <v>0.03803736573667013</v>
+      </c>
+      <c r="G84">
+        <v>0.04364695620021653</v>
+      </c>
+      <c r="H84">
+        <v>-0.02936299063363927</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.119062749083003</v>
+        <v>0.1216936375089823</v>
       </c>
       <c r="C85">
-        <v>-0.03943082299403675</v>
+        <v>-0.01444178486305774</v>
       </c>
       <c r="D85">
-        <v>-0.04991510414137881</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.0396855131427729</v>
+      </c>
+      <c r="E85">
+        <v>0.01726026750063753</v>
+      </c>
+      <c r="F85">
+        <v>-0.03082279194257831</v>
+      </c>
+      <c r="G85">
+        <v>0.008762012529075061</v>
+      </c>
+      <c r="H85">
+        <v>-0.1445726248751356</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05261612943289173</v>
+        <v>0.05653734771243784</v>
       </c>
       <c r="C86">
-        <v>-0.02147160929618367</v>
+        <v>-0.007551755556780388</v>
       </c>
       <c r="D86">
-        <v>-0.06174600759499362</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03621490877170122</v>
+      </c>
+      <c r="E86">
+        <v>0.04020474637831328</v>
+      </c>
+      <c r="F86">
+        <v>-0.0247508698867766</v>
+      </c>
+      <c r="G86">
+        <v>0.04119360946335096</v>
+      </c>
+      <c r="H86">
+        <v>0.04017572180653758</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1229332002759879</v>
+        <v>0.1249624246028682</v>
       </c>
       <c r="C87">
-        <v>-0.0673550950631929</v>
+        <v>-0.03044558197018883</v>
       </c>
       <c r="D87">
-        <v>-0.07115299379879443</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0702123201991865</v>
+      </c>
+      <c r="E87">
+        <v>0.01775638579742171</v>
+      </c>
+      <c r="F87">
+        <v>-0.01913861760064936</v>
+      </c>
+      <c r="G87">
+        <v>-0.1433765993521834</v>
+      </c>
+      <c r="H87">
+        <v>0.06815575709943746</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05409114794707504</v>
+        <v>0.06268029225230089</v>
       </c>
       <c r="C88">
-        <v>-0.02736028442526341</v>
+        <v>-0.01621906924421183</v>
       </c>
       <c r="D88">
-        <v>-0.02602524664886064</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03894226656921995</v>
+      </c>
+      <c r="E88">
+        <v>0.007471319781453475</v>
+      </c>
+      <c r="F88">
+        <v>-0.02057320078825518</v>
+      </c>
+      <c r="G88">
+        <v>-0.01648465383801812</v>
+      </c>
+      <c r="H88">
+        <v>-0.03906002829407778</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08619940729591573</v>
+        <v>0.107466792206047</v>
       </c>
       <c r="C89">
-        <v>-0.07650310743381022</v>
+        <v>-0.1260548193438125</v>
       </c>
       <c r="D89">
-        <v>0.3204404256279684</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3373192439040451</v>
+      </c>
+      <c r="E89">
+        <v>0.06426984830359381</v>
+      </c>
+      <c r="F89">
+        <v>-0.0768170660653224</v>
+      </c>
+      <c r="G89">
+        <v>0.01889156383062931</v>
+      </c>
+      <c r="H89">
+        <v>-0.01396640871297527</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.06754722649863196</v>
+        <v>0.08407024869121427</v>
       </c>
       <c r="C90">
-        <v>-0.06403906313078539</v>
+        <v>-0.103240397131616</v>
       </c>
       <c r="D90">
-        <v>0.2808537998183739</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2785556227815443</v>
+      </c>
+      <c r="E90">
+        <v>0.05017812812135782</v>
+      </c>
+      <c r="F90">
+        <v>-0.03398887815273951</v>
+      </c>
+      <c r="G90">
+        <v>-0.02214481526504091</v>
+      </c>
+      <c r="H90">
+        <v>0.006314348661390575</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.0901603140708349</v>
+        <v>0.09126762721754896</v>
       </c>
       <c r="C91">
-        <v>-0.04985121755299653</v>
+        <v>-0.02552108629438251</v>
       </c>
       <c r="D91">
-        <v>-0.01474688229281067</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03346833213807699</v>
+      </c>
+      <c r="E91">
+        <v>0.0081590697986748</v>
+      </c>
+      <c r="F91">
+        <v>1.246751723650551e-05</v>
+      </c>
+      <c r="G91">
+        <v>0.03095130348374537</v>
+      </c>
+      <c r="H91">
+        <v>-0.09053596558568078</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07094157023427573</v>
+        <v>0.08557910931051524</v>
       </c>
       <c r="C92">
-        <v>-0.07813651276739393</v>
+        <v>-0.1244403335973315</v>
       </c>
       <c r="D92">
-        <v>0.3405387078113244</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3301470347458912</v>
+      </c>
+      <c r="E92">
+        <v>0.05081465738224736</v>
+      </c>
+      <c r="F92">
+        <v>-0.03274167693887343</v>
+      </c>
+      <c r="G92">
+        <v>-0.009517977591588367</v>
+      </c>
+      <c r="H92">
+        <v>-0.01734184335429708</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0623714539511404</v>
+        <v>0.08130284305417566</v>
       </c>
       <c r="C93">
-        <v>-0.06751060783636664</v>
+        <v>-0.1132449733612088</v>
       </c>
       <c r="D93">
-        <v>0.2991856531325724</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2930447692358149</v>
+      </c>
+      <c r="E93">
+        <v>0.02610919291892387</v>
+      </c>
+      <c r="F93">
+        <v>-0.03120884231563459</v>
+      </c>
+      <c r="G93">
+        <v>-0.01411567802397402</v>
+      </c>
+      <c r="H93">
+        <v>-0.005377530256777125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1349136890259066</v>
+        <v>0.1293170139839433</v>
       </c>
       <c r="C94">
-        <v>-0.04235328771309309</v>
+        <v>-0.008046446384338926</v>
       </c>
       <c r="D94">
-        <v>-0.04483990925286783</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04984854448497807</v>
+      </c>
+      <c r="E94">
+        <v>-0.01908377923783065</v>
+      </c>
+      <c r="F94">
+        <v>-0.01270815419359219</v>
+      </c>
+      <c r="G94">
+        <v>0.04686292997247191</v>
+      </c>
+      <c r="H94">
+        <v>-0.1134413555568615</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1216649174175707</v>
+        <v>0.1294076539007307</v>
       </c>
       <c r="C95">
-        <v>-0.01690556975330822</v>
+        <v>0.009850864952754095</v>
       </c>
       <c r="D95">
-        <v>-0.0540027881312162</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.05748453124302234</v>
+      </c>
+      <c r="E95">
+        <v>0.005941104123078648</v>
+      </c>
+      <c r="F95">
+        <v>-0.04910532137268778</v>
+      </c>
+      <c r="G95">
+        <v>-0.01829195405803712</v>
+      </c>
+      <c r="H95">
+        <v>0.09283489573705658</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2204639519279146</v>
+        <v>0.1965228402368208</v>
       </c>
       <c r="C97">
-        <v>-0.03822357054835657</v>
+        <v>0.0100755330164817</v>
       </c>
       <c r="D97">
-        <v>0.09385654158614332</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.07154789961970387</v>
+      </c>
+      <c r="E97">
+        <v>-0.06315052394009477</v>
+      </c>
+      <c r="F97">
+        <v>0.9349237827114484</v>
+      </c>
+      <c r="G97">
+        <v>-0.05192065368804865</v>
+      </c>
+      <c r="H97">
+        <v>0.01797029207615424</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2440039589689244</v>
+        <v>0.273660726016749</v>
       </c>
       <c r="C98">
-        <v>-0.05072715465824879</v>
+        <v>-0.009461811262799831</v>
       </c>
       <c r="D98">
-        <v>-0.0171714303055112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.04509373842603297</v>
+      </c>
+      <c r="E98">
+        <v>-0.1947202455209466</v>
+      </c>
+      <c r="F98">
+        <v>-0.03843882910951418</v>
+      </c>
+      <c r="G98">
+        <v>0.323606283625732</v>
+      </c>
+      <c r="H98">
+        <v>0.2082341558403631</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.3943046386895381</v>
+        <v>0.2529956035916224</v>
       </c>
       <c r="C99">
-        <v>0.8981726200267369</v>
+        <v>0.9178030468730556</v>
       </c>
       <c r="D99">
-        <v>0.07737134823078015</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.2374625886541073</v>
+      </c>
+      <c r="E99">
+        <v>0.07170759193661029</v>
+      </c>
+      <c r="F99">
+        <v>-0.0748133798169673</v>
+      </c>
+      <c r="G99">
+        <v>-0.004015643662768446</v>
+      </c>
+      <c r="H99">
+        <v>-0.07843684134988792</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04539591419912541</v>
+        <v>0.04765086712293482</v>
       </c>
       <c r="C101">
-        <v>-0.03043237451443582</v>
+        <v>-0.02219739803491101</v>
       </c>
       <c r="D101">
-        <v>-0.002571914187821386</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01263032527734085</v>
+      </c>
+      <c r="E101">
+        <v>0.05729376015761426</v>
+      </c>
+      <c r="F101">
+        <v>-0.01446158719010327</v>
+      </c>
+      <c r="G101">
+        <v>-0.009988769115438563</v>
+      </c>
+      <c r="H101">
+        <v>-0.06231218688398774</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
